--- a/BioSTEAM 2.x.x/build/lib/biorefineries/lipidcane/Monte Carlo sugarcane.xlsx
+++ b/BioSTEAM 2.x.x/build/lib/biorefineries/lipidcane/Monte Carlo sugarcane.xlsx
@@ -68,14 +68,14 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
+      <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -417,142 +417,142 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve</t>
+          <t>Conveying belt</t>
         </is>
       </c>
       <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Magnetic separator</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Vibrating screen</t>
         </is>
       </c>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Process water center</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Chilled water package</t>
+        </is>
+      </c>
       <c r="L1" s="1" t="n"/>
       <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="n"/>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Vent scrubber</t>
+        </is>
+      </c>
       <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Process water center</t>
+        </is>
+      </c>
       <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Conveying belt</t>
-        </is>
-      </c>
+      <c r="R1" s="1" t="n"/>
       <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Solids centrifuge</t>
         </is>
       </c>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Boiler turbogenerator</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="n"/>
-      <c r="X1" s="1" t="n"/>
       <c r="Y1" s="1" t="n"/>
-      <c r="Z1" s="1" t="n"/>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Molecular sieve</t>
+        </is>
+      </c>
       <c r="AA1" s="1" t="n"/>
       <c r="AB1" s="1" t="n"/>
-      <c r="AC1" s="1" t="n"/>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Crushing mill</t>
+        </is>
+      </c>
       <c r="AD1" s="1" t="n"/>
       <c r="AE1" s="1" t="n"/>
-      <c r="AF1" s="1" t="n"/>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Vent scrubber</t>
-        </is>
-      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Fermentation</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="n"/>
       <c r="AH1" s="1" t="n"/>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Fermentation</t>
-        </is>
-      </c>
+      <c r="AI1" s="1" t="n"/>
       <c r="AJ1" s="1" t="n"/>
       <c r="AK1" s="1" t="n"/>
       <c r="AL1" s="1" t="n"/>
-      <c r="AM1" s="1" t="n"/>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Shredder</t>
+        </is>
+      </c>
       <c r="AN1" s="1" t="n"/>
       <c r="AO1" s="1" t="n"/>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Shredder</t>
+          <t>Boiler turbogenerator</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="n"/>
       <c r="AR1" s="1" t="n"/>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Clarifier</t>
-        </is>
-      </c>
+      <c r="AS1" s="1" t="n"/>
       <c r="AT1" s="1" t="n"/>
       <c r="AU1" s="1" t="n"/>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>Magnetic separator</t>
-        </is>
-      </c>
+      <c r="AV1" s="1" t="n"/>
       <c r="AW1" s="1" t="n"/>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Chilled water package</t>
-        </is>
-      </c>
+      <c r="AX1" s="1" t="n"/>
       <c r="AY1" s="1" t="n"/>
       <c r="AZ1" s="1" t="n"/>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>Crushing mill</t>
+          <t>Cooling tower</t>
         </is>
       </c>
       <c r="BB1" s="1" t="n"/>
       <c r="BC1" s="1" t="n"/>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Cooling tower</t>
-        </is>
-      </c>
+      <c r="BD1" s="1" t="n"/>
       <c r="BE1" s="1" t="n"/>
       <c r="BF1" s="1" t="n"/>
-      <c r="BG1" s="1" t="n"/>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Clarifier</t>
+        </is>
+      </c>
       <c r="BH1" s="1" t="n"/>
       <c r="BI1" s="1" t="n"/>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
+          <t>Stream-makeup water</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Stream-sugar cane</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Stream-lime</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
           <t>Stream-enzyme</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>Stream-lime</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>Stream-makeup water</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Stream-denaturant</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>Stream-sugar cane</t>
-        </is>
-      </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Stream-ethanol</t>
@@ -565,22 +565,22 @@
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>Chilled Brine</t>
+          <t>chilled brine</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>Low pressure steam</t>
+          <t>low pressure steam</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>Medium pressure steam</t>
+          <t>medium pressure steam</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>High pressure steam</t>
+          <t>high pressure steam</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
@@ -629,287 +629,287 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
+          <t>Base cost [USD]</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Exponent</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Base cost [USD]</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>Exponent</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Base cost [USD]</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>Exponent</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>Base cost [USD]</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>Exponent</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>Electricity rate [kW / kJ/hr]</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>Base cost [USD]</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>Exponent</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>Tank base cost [USD]</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>Tank exponent</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>Process water pump base cost [USD]</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>Process water pump exponent</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>Process water pump electricity rate [kW / kg/hr]</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>Makeup water pump base cost [USD]</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>Makeup water pump exponent</t>
+        </is>
+      </c>
+      <c r="W2" s="1" t="inlineStr">
+        <is>
+          <t>Makeup water pump electricity rate [kW / kg/hr]</t>
+        </is>
+      </c>
+      <c r="X2" s="1" t="inlineStr">
+        <is>
+          <t>Base cost [USD]</t>
+        </is>
+      </c>
+      <c r="Y2" s="1" t="inlineStr">
+        <is>
+          <t>Exponent</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
+        <is>
           <t>Column base cost [USD]</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="AA2" s="1" t="inlineStr">
         <is>
           <t>Column exponent</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="AB2" s="1" t="inlineStr">
         <is>
           <t>Column electricity rate [kW / kg/hr]</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="AC2" s="1" t="inlineStr">
         <is>
           <t>Base cost [USD]</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="AD2" s="1" t="inlineStr">
         <is>
           <t>Exponent</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>Tank base cost [USD]</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>Tank exponent</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>Process water pump base cost [USD]</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>Process water pump exponent</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>Process water pump electricity rate [kW / kg/hr]</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>Makeup water pump base cost [USD]</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>Makeup water pump exponent</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>Makeup water pump electricity rate [kW / kg/hr]</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="AE2" s="1" t="inlineStr">
+        <is>
+          <t>Electricity rate [kW / kg/hr]</t>
+        </is>
+      </c>
+      <c r="AF2" s="1" t="inlineStr">
+        <is>
+          <t>Reactors base cost [USD]</t>
+        </is>
+      </c>
+      <c r="AG2" s="1" t="inlineStr">
+        <is>
+          <t>Reactors exponent</t>
+        </is>
+      </c>
+      <c r="AH2" s="1" t="inlineStr">
+        <is>
+          <t>Agitators base cost [USD]</t>
+        </is>
+      </c>
+      <c r="AI2" s="1" t="inlineStr">
+        <is>
+          <t>Agitators exponent</t>
+        </is>
+      </c>
+      <c r="AJ2" s="1" t="inlineStr">
+        <is>
+          <t>Agitators electricity rate [kW / m3]</t>
+        </is>
+      </c>
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>Cleaning in place base cost [USD]</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>Cleaning in place exponent</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
         <is>
           <t>Base cost [USD]</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="AN2" s="1" t="inlineStr">
         <is>
           <t>Exponent</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>Electricity rate [kW / kg/hr]</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
+        <is>
+          <t>Boiler base cost [USD]</t>
+        </is>
+      </c>
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>Boiler exponent</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>Boiler electricity rate [kW / kg/hr]</t>
+        </is>
+      </c>
+      <c r="AS2" s="1" t="inlineStr">
+        <is>
+          <t>Deaerator base cost [USD]</t>
+        </is>
+      </c>
+      <c r="AT2" s="1" t="inlineStr">
+        <is>
+          <t>Deaerator exponent</t>
+        </is>
+      </c>
+      <c r="AU2" s="1" t="inlineStr">
+        <is>
+          <t>Amine addition pkg base cost [USD]</t>
+        </is>
+      </c>
+      <c r="AV2" s="1" t="inlineStr">
+        <is>
+          <t>Amine addition pkg exponent</t>
+        </is>
+      </c>
+      <c r="AW2" s="1" t="inlineStr">
+        <is>
+          <t>Hot process water softener system base cost [USD]</t>
+        </is>
+      </c>
+      <c r="AX2" s="1" t="inlineStr">
+        <is>
+          <t>Hot process water softener system exponent</t>
+        </is>
+      </c>
+      <c r="AY2" s="1" t="inlineStr">
+        <is>
+          <t>Turbogenerator base cost [USD]</t>
+        </is>
+      </c>
+      <c r="AZ2" s="1" t="inlineStr">
+        <is>
+          <t>Turbogenerator exponent</t>
+        </is>
+      </c>
+      <c r="BA2" s="1" t="inlineStr">
         <is>
           <t>Base cost [USD]</t>
         </is>
       </c>
-      <c r="U2" s="1" t="inlineStr">
+      <c r="BB2" s="1" t="inlineStr">
         <is>
           <t>Exponent</t>
         </is>
       </c>
-      <c r="V2" s="1" t="inlineStr">
-        <is>
-          <t>Boiler base cost [USD]</t>
-        </is>
-      </c>
-      <c r="W2" s="1" t="inlineStr">
-        <is>
-          <t>Boiler exponent</t>
-        </is>
-      </c>
-      <c r="X2" s="1" t="inlineStr">
-        <is>
-          <t>Boiler electricity rate [kW / kg/hr]</t>
-        </is>
-      </c>
-      <c r="Y2" s="1" t="inlineStr">
-        <is>
-          <t>Deaerator base cost [USD]</t>
-        </is>
-      </c>
-      <c r="Z2" s="1" t="inlineStr">
-        <is>
-          <t>Deaerator exponent</t>
-        </is>
-      </c>
-      <c r="AA2" s="1" t="inlineStr">
-        <is>
-          <t>Amine addition pkg base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AB2" s="1" t="inlineStr">
-        <is>
-          <t>Amine addition pkg exponent</t>
-        </is>
-      </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>Hot process water softener system base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AD2" s="1" t="inlineStr">
-        <is>
-          <t>Hot process water softener system exponent</t>
-        </is>
-      </c>
-      <c r="AE2" s="1" t="inlineStr">
-        <is>
-          <t>Turbogenerator base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AF2" s="1" t="inlineStr">
-        <is>
-          <t>Turbogenerator exponent</t>
-        </is>
-      </c>
-      <c r="AG2" s="1" t="inlineStr">
+      <c r="BC2" s="1" t="inlineStr">
+        <is>
+          <t>Electricity rate [kW / kmol/hr]</t>
+        </is>
+      </c>
+      <c r="BD2" s="1" t="inlineStr">
+        <is>
+          <t>Cooling water pump base cost [USD]</t>
+        </is>
+      </c>
+      <c r="BE2" s="1" t="inlineStr">
+        <is>
+          <t>Cooling water pump exponent</t>
+        </is>
+      </c>
+      <c r="BF2" s="1" t="inlineStr">
+        <is>
+          <t>Cooling water pump electricity rate [kW / kmol/hr]</t>
+        </is>
+      </c>
+      <c r="BG2" s="1" t="inlineStr">
         <is>
           <t>Base cost [USD]</t>
         </is>
       </c>
-      <c r="AH2" s="1" t="inlineStr">
+      <c r="BH2" s="1" t="inlineStr">
         <is>
           <t>Exponent</t>
         </is>
       </c>
-      <c r="AI2" s="1" t="inlineStr">
-        <is>
-          <t>Reactors base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AJ2" s="1" t="inlineStr">
-        <is>
-          <t>Reactors exponent</t>
-        </is>
-      </c>
-      <c r="AK2" s="1" t="inlineStr">
-        <is>
-          <t>Agitators base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AL2" s="1" t="inlineStr">
-        <is>
-          <t>Agitators exponent</t>
-        </is>
-      </c>
-      <c r="AM2" s="1" t="inlineStr">
-        <is>
-          <t>Agitators electricity rate [kW / m3]</t>
-        </is>
-      </c>
-      <c r="AN2" s="1" t="inlineStr">
-        <is>
-          <t>Cleaning in place base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AO2" s="1" t="inlineStr">
-        <is>
-          <t>Cleaning in place exponent</t>
-        </is>
-      </c>
-      <c r="AP2" s="1" t="inlineStr">
-        <is>
-          <t>Base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AQ2" s="1" t="inlineStr">
-        <is>
-          <t>Exponent</t>
-        </is>
-      </c>
-      <c r="AR2" s="1" t="inlineStr">
-        <is>
-          <t>Electricity rate [kW / kg/hr]</t>
-        </is>
-      </c>
-      <c r="AS2" s="1" t="inlineStr">
-        <is>
-          <t>Base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AT2" s="1" t="inlineStr">
-        <is>
-          <t>Exponent</t>
-        </is>
-      </c>
-      <c r="AU2" s="1" t="inlineStr">
+      <c r="BI2" s="1" t="inlineStr">
         <is>
           <t>Electricity rate [kW / ft^2]</t>
-        </is>
-      </c>
-      <c r="AV2" s="1" t="inlineStr">
-        <is>
-          <t>Base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AW2" s="1" t="inlineStr">
-        <is>
-          <t>Exponent</t>
-        </is>
-      </c>
-      <c r="AX2" s="1" t="inlineStr">
-        <is>
-          <t>Base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AY2" s="1" t="inlineStr">
-        <is>
-          <t>Exponent</t>
-        </is>
-      </c>
-      <c r="AZ2" s="1" t="inlineStr">
-        <is>
-          <t>Electricity rate [kW / kJ/hr]</t>
-        </is>
-      </c>
-      <c r="BA2" s="1" t="inlineStr">
-        <is>
-          <t>Base cost [USD]</t>
-        </is>
-      </c>
-      <c r="BB2" s="1" t="inlineStr">
-        <is>
-          <t>Exponent</t>
-        </is>
-      </c>
-      <c r="BC2" s="1" t="inlineStr">
-        <is>
-          <t>Electricity rate [kW / kg/hr]</t>
-        </is>
-      </c>
-      <c r="BD2" s="1" t="inlineStr">
-        <is>
-          <t>Base cost [USD]</t>
-        </is>
-      </c>
-      <c r="BE2" s="1" t="inlineStr">
-        <is>
-          <t>Exponent</t>
-        </is>
-      </c>
-      <c r="BF2" s="1" t="inlineStr">
-        <is>
-          <t>Electricity rate [kW / kmol/hr]</t>
-        </is>
-      </c>
-      <c r="BG2" s="1" t="inlineStr">
-        <is>
-          <t>Cooling water pump base cost [USD]</t>
-        </is>
-      </c>
-      <c r="BH2" s="1" t="inlineStr">
-        <is>
-          <t>Cooling water pump exponent</t>
-        </is>
-      </c>
-      <c r="BI2" s="1" t="inlineStr">
-        <is>
-          <t>Cooling water pump electricity rate [kW / kmol/hr]</t>
         </is>
       </c>
       <c r="BJ2" s="1" t="inlineStr">
@@ -1032,190 +1032,190 @@
         <v>0.9</v>
       </c>
       <c r="E4" t="n">
+        <v>813</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G4" t="n">
+        <v>533471</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1010</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1375000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-4.328359737776564e-05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>215000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P4" t="n">
+        <v>250000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R4" t="n">
+        <v>15292</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0001077758978193339</v>
+      </c>
+      <c r="U4" t="n">
+        <v>6864</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9.587050988660616e-05</v>
+      </c>
+      <c r="X4" t="n">
+        <v>68040</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z4" t="n">
         <v>2601000</v>
       </c>
-      <c r="F4" t="n">
+      <c r="AA4" t="n">
         <v>0.6</v>
       </c>
-      <c r="G4" t="n">
+      <c r="AB4" t="n">
         <v>0.006655794067086878</v>
       </c>
-      <c r="H4" t="n">
-        <v>1010</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="J4" t="n">
-        <v>250000</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15292</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.0001077758978193339</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6864</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>9.587050988660616e-05</v>
-      </c>
-      <c r="R4" t="n">
-        <v>813</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T4" t="n">
-        <v>68040</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V4" t="n">
-        <v>28550000</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.004189604752687631</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>305000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>40000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.6</v>
-      </c>
       <c r="AC4" t="n">
-        <v>78000</v>
+        <v>1500000</v>
       </c>
       <c r="AD4" t="n">
         <v>0.6</v>
       </c>
       <c r="AE4" t="n">
-        <v>9500000</v>
+        <v>0.006</v>
       </c>
       <c r="AF4" t="n">
+        <v>844000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>52500</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.005910435931307793</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>421000</v>
+      </c>
+      <c r="AL4" t="n">
         <v>0.6</v>
       </c>
-      <c r="AG4" t="n">
-        <v>215000</v>
-      </c>
-      <c r="AH4" t="n">
+      <c r="AM4" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="AN4" t="n">
         <v>0.6</v>
       </c>
-      <c r="AI4" t="n">
-        <v>844000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>52500</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.005910435931307793</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>421000</v>
-      </c>
       <c r="AO4" t="n">
-        <v>0.6</v>
+        <v>0.006</v>
       </c>
       <c r="AP4" t="n">
-        <v>2500000</v>
+        <v>28550000</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.6</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.006</v>
+        <v>0.004189604752687631</v>
       </c>
       <c r="AS4" t="n">
+        <v>305000</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>78000</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>1375000</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.002867998485237346</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>283671</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.001832432073483936</v>
+      </c>
+      <c r="BG4" t="n">
         <v>2720</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="BH4" t="n">
         <v>0.58</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="BI4" t="n">
         <v>0.0005</v>
       </c>
-      <c r="AV4" t="n">
-        <v>533471</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>1375000</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>-4.328359737776564e-05</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>1375000</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>0.002867998485237346</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>283671</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>0.001832432073483936</v>
-      </c>
       <c r="BJ4" t="n">
+        <v>0.000254</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.03455</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="BM4" t="n">
         <v>0.5</v>
       </c>
-      <c r="BK4" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0.000254</v>
-      </c>
-      <c r="BM4" t="n">
+      <c r="BN4" t="n">
         <v>0.756</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>0.03455</v>
       </c>
       <c r="BO4" t="n">
         <v>0.789</v>
@@ -1224,7 +1224,7 @@
         <v>0.065</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-8.145000000000001e-06</v>
+        <v>8.145000000000001e-06</v>
       </c>
       <c r="BR4" t="n">
         <v>0.30626</v>
@@ -1245,43 +1245,43 @@
         <v>0.85</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.1055885842030745</v>
+        <v>0.1123073288464076</v>
       </c>
       <c r="BY4" t="n">
-        <v>71110523.56697692</v>
+        <v>66999361.46937636</v>
       </c>
       <c r="BZ4" t="n">
-        <v>163940646.0424893</v>
+        <v>187013393.7190283</v>
       </c>
       <c r="CA4" t="n">
-        <v>112377289.7927848</v>
+        <v>112361139.6696401</v>
       </c>
       <c r="CB4" t="n">
-        <v>702923.5099656141</v>
+        <v>702890.470651487</v>
       </c>
       <c r="CC4" t="n">
-        <v>37960.8455081061</v>
+        <v>38157.75620019605</v>
       </c>
       <c r="CD4" t="n">
-        <v>76010.01666251809</v>
+        <v>164524.393193003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AZ1"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="BV1:BW1"/>
     <mergeCell ref="BX1:CD1"/>
   </mergeCells>

--- a/BioSTEAM 2.x.x/build/lib/biorefineries/lipidcane/Monte Carlo sugarcane.xlsx
+++ b/BioSTEAM 2.x.x/build/lib/biorefineries/lipidcane/Monte Carlo sugarcane.xlsx
@@ -68,14 +68,14 @@
     </border>
     <border>
       <left/>
-      <right style="thin"/>
+      <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -417,125 +417,125 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Conveying belt</t>
+          <t>Cooling tower</t>
         </is>
       </c>
       <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Magnetic separator</t>
-        </is>
-      </c>
+      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Vibrating screen</t>
-        </is>
-      </c>
+      <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package</t>
+          <t>Crushing mill</t>
         </is>
       </c>
       <c r="L1" s="1" t="n"/>
       <c r="M1" s="1" t="n"/>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Vent scrubber</t>
+          <t>Vibrating screen</t>
         </is>
       </c>
       <c r="O1" s="1" t="n"/>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Process water center</t>
+          <t>Conveying belt</t>
         </is>
       </c>
       <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="n"/>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Chilled water package</t>
+        </is>
+      </c>
       <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Vent scrubber</t>
+        </is>
+      </c>
       <c r="V1" s="1" t="n"/>
-      <c r="W1" s="1" t="n"/>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Solids centrifuge</t>
-        </is>
-      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Process water center</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="n"/>
       <c r="Y1" s="1" t="n"/>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Molecular sieve</t>
-        </is>
-      </c>
+      <c r="Z1" s="1" t="n"/>
       <c r="AA1" s="1" t="n"/>
       <c r="AB1" s="1" t="n"/>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Crushing mill</t>
-        </is>
-      </c>
+      <c r="AC1" s="1" t="n"/>
       <c r="AD1" s="1" t="n"/>
-      <c r="AE1" s="1" t="n"/>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Fermentation</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="n"/>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Solids centrifuge</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="n"/>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Molecular sieve</t>
+        </is>
+      </c>
       <c r="AH1" s="1" t="n"/>
       <c r="AI1" s="1" t="n"/>
-      <c r="AJ1" s="1" t="n"/>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Magnetic separator</t>
+        </is>
+      </c>
       <c r="AK1" s="1" t="n"/>
-      <c r="AL1" s="1" t="n"/>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Shredder</t>
-        </is>
-      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Fermentation</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="n"/>
       <c r="AN1" s="1" t="n"/>
       <c r="AO1" s="1" t="n"/>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Boiler turbogenerator</t>
-        </is>
-      </c>
+      <c r="AP1" s="1" t="n"/>
       <c r="AQ1" s="1" t="n"/>
       <c r="AR1" s="1" t="n"/>
-      <c r="AS1" s="1" t="n"/>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Shredder</t>
+        </is>
+      </c>
       <c r="AT1" s="1" t="n"/>
       <c r="AU1" s="1" t="n"/>
-      <c r="AV1" s="1" t="n"/>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Clarifier</t>
+        </is>
+      </c>
       <c r="AW1" s="1" t="n"/>
       <c r="AX1" s="1" t="n"/>
-      <c r="AY1" s="1" t="n"/>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Boiler turbogenerator</t>
+        </is>
+      </c>
       <c r="AZ1" s="1" t="n"/>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Cooling tower</t>
-        </is>
-      </c>
+      <c r="BA1" s="1" t="n"/>
       <c r="BB1" s="1" t="n"/>
       <c r="BC1" s="1" t="n"/>
       <c r="BD1" s="1" t="n"/>
       <c r="BE1" s="1" t="n"/>
       <c r="BF1" s="1" t="n"/>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>Clarifier</t>
-        </is>
-      </c>
+      <c r="BG1" s="1" t="n"/>
       <c r="BH1" s="1" t="n"/>
       <c r="BI1" s="1" t="n"/>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
+          <t>Stream-sugar cane</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
           <t>Stream-makeup water</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>Stream-sugar cane</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
@@ -639,277 +639,277 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
+          <t>Electricity rate [kW / kmol/hr]</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>Cooling water pump base cost [USD]</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Cooling water pump exponent</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>Cooling water pump electricity rate [kW / kmol/hr]</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
           <t>Base cost [USD]</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>Exponent</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>Electricity rate [kW / kg/hr]</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>Base cost [USD]</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="O2" s="1" t="inlineStr">
         <is>
           <t>Exponent</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>Base cost [USD]</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="Q2" s="1" t="inlineStr">
         <is>
           <t>Exponent</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>Base cost [USD]</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>Exponent</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
         <is>
           <t>Electricity rate [kW / kJ/hr]</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="U2" s="1" t="inlineStr">
         <is>
           <t>Base cost [USD]</t>
         </is>
       </c>
-      <c r="O2" s="1" t="inlineStr">
+      <c r="V2" s="1" t="inlineStr">
         <is>
           <t>Exponent</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
+      <c r="W2" s="1" t="inlineStr">
         <is>
           <t>Tank base cost [USD]</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="X2" s="1" t="inlineStr">
         <is>
           <t>Tank exponent</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="Y2" s="1" t="inlineStr">
         <is>
           <t>Process water pump base cost [USD]</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="Z2" s="1" t="inlineStr">
         <is>
           <t>Process water pump exponent</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
+      <c r="AA2" s="1" t="inlineStr">
         <is>
           <t>Process water pump electricity rate [kW / kg/hr]</t>
         </is>
       </c>
-      <c r="U2" s="1" t="inlineStr">
+      <c r="AB2" s="1" t="inlineStr">
         <is>
           <t>Makeup water pump base cost [USD]</t>
         </is>
       </c>
-      <c r="V2" s="1" t="inlineStr">
+      <c r="AC2" s="1" t="inlineStr">
         <is>
           <t>Makeup water pump exponent</t>
         </is>
       </c>
-      <c r="W2" s="1" t="inlineStr">
+      <c r="AD2" s="1" t="inlineStr">
         <is>
           <t>Makeup water pump electricity rate [kW / kg/hr]</t>
         </is>
       </c>
-      <c r="X2" s="1" t="inlineStr">
+      <c r="AE2" s="1" t="inlineStr">
         <is>
           <t>Base cost [USD]</t>
         </is>
       </c>
-      <c r="Y2" s="1" t="inlineStr">
+      <c r="AF2" s="1" t="inlineStr">
         <is>
           <t>Exponent</t>
         </is>
       </c>
-      <c r="Z2" s="1" t="inlineStr">
+      <c r="AG2" s="1" t="inlineStr">
         <is>
           <t>Column base cost [USD]</t>
         </is>
       </c>
-      <c r="AA2" s="1" t="inlineStr">
+      <c r="AH2" s="1" t="inlineStr">
         <is>
           <t>Column exponent</t>
         </is>
       </c>
-      <c r="AB2" s="1" t="inlineStr">
+      <c r="AI2" s="1" t="inlineStr">
         <is>
           <t>Column electricity rate [kW / kg/hr]</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
+      <c r="AJ2" s="1" t="inlineStr">
         <is>
           <t>Base cost [USD]</t>
         </is>
       </c>
-      <c r="AD2" s="1" t="inlineStr">
+      <c r="AK2" s="1" t="inlineStr">
         <is>
           <t>Exponent</t>
         </is>
       </c>
-      <c r="AE2" s="1" t="inlineStr">
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>Reactors base cost [USD]</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
+        <is>
+          <t>Reactors exponent</t>
+        </is>
+      </c>
+      <c r="AN2" s="1" t="inlineStr">
+        <is>
+          <t>Agitators base cost [USD]</t>
+        </is>
+      </c>
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>Agitators exponent</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
+        <is>
+          <t>Agitators electricity rate [kW / m3]</t>
+        </is>
+      </c>
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>Cleaning in place base cost [USD]</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>Cleaning in place exponent</t>
+        </is>
+      </c>
+      <c r="AS2" s="1" t="inlineStr">
+        <is>
+          <t>Base cost [USD]</t>
+        </is>
+      </c>
+      <c r="AT2" s="1" t="inlineStr">
+        <is>
+          <t>Exponent</t>
+        </is>
+      </c>
+      <c r="AU2" s="1" t="inlineStr">
         <is>
           <t>Electricity rate [kW / kg/hr]</t>
         </is>
       </c>
-      <c r="AF2" s="1" t="inlineStr">
-        <is>
-          <t>Reactors base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AG2" s="1" t="inlineStr">
-        <is>
-          <t>Reactors exponent</t>
-        </is>
-      </c>
-      <c r="AH2" s="1" t="inlineStr">
-        <is>
-          <t>Agitators base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AI2" s="1" t="inlineStr">
-        <is>
-          <t>Agitators exponent</t>
-        </is>
-      </c>
-      <c r="AJ2" s="1" t="inlineStr">
-        <is>
-          <t>Agitators electricity rate [kW / m3]</t>
-        </is>
-      </c>
-      <c r="AK2" s="1" t="inlineStr">
-        <is>
-          <t>Cleaning in place base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AL2" s="1" t="inlineStr">
-        <is>
-          <t>Cleaning in place exponent</t>
-        </is>
-      </c>
-      <c r="AM2" s="1" t="inlineStr">
+      <c r="AV2" s="1" t="inlineStr">
         <is>
           <t>Base cost [USD]</t>
         </is>
       </c>
-      <c r="AN2" s="1" t="inlineStr">
+      <c r="AW2" s="1" t="inlineStr">
         <is>
           <t>Exponent</t>
         </is>
       </c>
-      <c r="AO2" s="1" t="inlineStr">
-        <is>
-          <t>Electricity rate [kW / kg/hr]</t>
-        </is>
-      </c>
-      <c r="AP2" s="1" t="inlineStr">
+      <c r="AX2" s="1" t="inlineStr">
+        <is>
+          <t>Electricity rate [kW / ft^2]</t>
+        </is>
+      </c>
+      <c r="AY2" s="1" t="inlineStr">
         <is>
           <t>Boiler base cost [USD]</t>
         </is>
       </c>
-      <c r="AQ2" s="1" t="inlineStr">
+      <c r="AZ2" s="1" t="inlineStr">
         <is>
           <t>Boiler exponent</t>
         </is>
       </c>
-      <c r="AR2" s="1" t="inlineStr">
+      <c r="BA2" s="1" t="inlineStr">
         <is>
           <t>Boiler electricity rate [kW / kg/hr]</t>
         </is>
       </c>
-      <c r="AS2" s="1" t="inlineStr">
+      <c r="BB2" s="1" t="inlineStr">
         <is>
           <t>Deaerator base cost [USD]</t>
         </is>
       </c>
-      <c r="AT2" s="1" t="inlineStr">
+      <c r="BC2" s="1" t="inlineStr">
         <is>
           <t>Deaerator exponent</t>
         </is>
       </c>
-      <c r="AU2" s="1" t="inlineStr">
+      <c r="BD2" s="1" t="inlineStr">
         <is>
           <t>Amine addition pkg base cost [USD]</t>
         </is>
       </c>
-      <c r="AV2" s="1" t="inlineStr">
+      <c r="BE2" s="1" t="inlineStr">
         <is>
           <t>Amine addition pkg exponent</t>
         </is>
       </c>
-      <c r="AW2" s="1" t="inlineStr">
+      <c r="BF2" s="1" t="inlineStr">
         <is>
           <t>Hot process water softener system base cost [USD]</t>
         </is>
       </c>
-      <c r="AX2" s="1" t="inlineStr">
+      <c r="BG2" s="1" t="inlineStr">
         <is>
           <t>Hot process water softener system exponent</t>
         </is>
       </c>
-      <c r="AY2" s="1" t="inlineStr">
+      <c r="BH2" s="1" t="inlineStr">
         <is>
           <t>Turbogenerator base cost [USD]</t>
         </is>
       </c>
-      <c r="AZ2" s="1" t="inlineStr">
+      <c r="BI2" s="1" t="inlineStr">
         <is>
           <t>Turbogenerator exponent</t>
-        </is>
-      </c>
-      <c r="BA2" s="1" t="inlineStr">
-        <is>
-          <t>Base cost [USD]</t>
-        </is>
-      </c>
-      <c r="BB2" s="1" t="inlineStr">
-        <is>
-          <t>Exponent</t>
-        </is>
-      </c>
-      <c r="BC2" s="1" t="inlineStr">
-        <is>
-          <t>Electricity rate [kW / kmol/hr]</t>
-        </is>
-      </c>
-      <c r="BD2" s="1" t="inlineStr">
-        <is>
-          <t>Cooling water pump base cost [USD]</t>
-        </is>
-      </c>
-      <c r="BE2" s="1" t="inlineStr">
-        <is>
-          <t>Cooling water pump exponent</t>
-        </is>
-      </c>
-      <c r="BF2" s="1" t="inlineStr">
-        <is>
-          <t>Cooling water pump electricity rate [kW / kmol/hr]</t>
-        </is>
-      </c>
-      <c r="BG2" s="1" t="inlineStr">
-        <is>
-          <t>Base cost [USD]</t>
-        </is>
-      </c>
-      <c r="BH2" s="1" t="inlineStr">
-        <is>
-          <t>Exponent</t>
-        </is>
-      </c>
-      <c r="BI2" s="1" t="inlineStr">
-        <is>
-          <t>Electricity rate [kW / ft^2]</t>
         </is>
       </c>
       <c r="BJ2" s="1" t="inlineStr">
@@ -1032,181 +1032,181 @@
         <v>0.9</v>
       </c>
       <c r="E4" t="n">
+        <v>1375000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.002867998485237346</v>
+      </c>
+      <c r="H4" t="n">
+        <v>283671</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001832432073483936</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1010</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="P4" t="n">
         <v>813</v>
       </c>
-      <c r="F4" t="n">
+      <c r="Q4" t="n">
         <v>0.38</v>
       </c>
-      <c r="G4" t="n">
+      <c r="R4" t="n">
+        <v>1375000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-4.328359737776564e-05</v>
+      </c>
+      <c r="U4" t="n">
+        <v>215000</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W4" t="n">
+        <v>250000</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15292</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.0001077758978193339</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6864</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>9.587050988660616e-05</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>68040</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2601000</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.006655794067086878</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>533471</v>
       </c>
-      <c r="H4" t="n">
+      <c r="AK4" t="n">
         <v>0.6</v>
       </c>
-      <c r="I4" t="n">
-        <v>1010</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1375000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-4.328359737776564e-05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>215000</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="AL4" t="n">
+        <v>844000</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>52500</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.005910435931307793</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>421000</v>
+      </c>
+      <c r="AR4" t="n">
         <v>0.6</v>
       </c>
-      <c r="P4" t="n">
-        <v>250000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="R4" t="n">
-        <v>15292</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.0001077758978193339</v>
-      </c>
-      <c r="U4" t="n">
-        <v>6864</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="W4" t="n">
-        <v>9.587050988660616e-05</v>
-      </c>
-      <c r="X4" t="n">
-        <v>68040</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2601000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.006655794067086878</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>844000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>52500</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.005910435931307793</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>421000</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AS4" t="n">
         <v>2500000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>28550000</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0.004189604752687631</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>305000</v>
       </c>
       <c r="AT4" t="n">
         <v>0.6</v>
       </c>
       <c r="AU4" t="n">
-        <v>40000</v>
+        <v>0.006</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.6</v>
+        <v>2720</v>
       </c>
       <c r="AW4" t="n">
-        <v>78000</v>
+        <v>0.58</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.6</v>
+        <v>0.0005</v>
       </c>
       <c r="AY4" t="n">
-        <v>9500000</v>
+        <v>28550000</v>
       </c>
       <c r="AZ4" t="n">
         <v>0.6</v>
       </c>
       <c r="BA4" t="n">
-        <v>1375000</v>
+        <v>0.004189604752687631</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.7</v>
+        <v>305000</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.002867998485237346</v>
+        <v>0.6</v>
       </c>
       <c r="BD4" t="n">
-        <v>283671</v>
+        <v>40000</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.001832432073483936</v>
+        <v>78000</v>
       </c>
       <c r="BG4" t="n">
-        <v>2720</v>
+        <v>0.6</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.58</v>
+        <v>9500000</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.0005</v>
+        <v>0.6</v>
       </c>
       <c r="BJ4" t="n">
+        <v>0.03455</v>
+      </c>
+      <c r="BK4" t="n">
         <v>0.000254</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>0.03455</v>
       </c>
       <c r="BL4" t="n">
         <v>0.077</v>
@@ -1245,43 +1245,43 @@
         <v>0.85</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.1123073288464076</v>
+        <v>0.1054121339006318</v>
       </c>
       <c r="BY4" t="n">
-        <v>66999361.46937636</v>
+        <v>71119802.7902441</v>
       </c>
       <c r="BZ4" t="n">
-        <v>187013393.7190283</v>
+        <v>164034738.4458485</v>
       </c>
       <c r="CA4" t="n">
-        <v>112361139.6696401</v>
+        <v>112354864.2515192</v>
       </c>
       <c r="CB4" t="n">
-        <v>702890.470651487</v>
+        <v>702964.9215829459</v>
       </c>
       <c r="CC4" t="n">
-        <v>38157.75620019605</v>
+        <v>37986.26172574457</v>
       </c>
       <c r="CD4" t="n">
-        <v>164524.393193003</v>
+        <v>75962.89055642692</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AZ1"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BI1"/>
     <mergeCell ref="BV1:BW1"/>
     <mergeCell ref="BX1:CD1"/>
   </mergeCells>

--- a/BioSTEAM 2.x.x/build/lib/biorefineries/lipidcane/Monte Carlo sugarcane.xlsx
+++ b/BioSTEAM 2.x.x/build/lib/biorefineries/lipidcane/Monte Carlo sugarcane.xlsx
@@ -417,13 +417,13 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Vibrating screen</t>
+          <t>Vent scrubber</t>
         </is>
       </c>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator</t>
+          <t>Process water center</t>
         </is>
       </c>
       <c r="H1" s="1" t="n"/>
@@ -433,84 +433,84 @@
       <c r="L1" s="1" t="n"/>
       <c r="M1" s="1" t="n"/>
       <c r="N1" s="1" t="n"/>
-      <c r="O1" s="1" t="n"/>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Boiler turbogenerator</t>
+        </is>
+      </c>
       <c r="P1" s="1" t="n"/>
       <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Cooling tower</t>
-        </is>
-      </c>
+      <c r="R1" s="1" t="n"/>
       <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
       <c r="U1" s="1" t="n"/>
       <c r="V1" s="1" t="n"/>
       <c r="W1" s="1" t="n"/>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Conveying belt</t>
-        </is>
-      </c>
+      <c r="X1" s="1" t="n"/>
       <c r="Y1" s="1" t="n"/>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Fermentation</t>
+          <t>Crushing mill</t>
         </is>
       </c>
       <c r="AA1" s="1" t="n"/>
       <c r="AB1" s="1" t="n"/>
-      <c r="AC1" s="1" t="n"/>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Vibrating screen</t>
+        </is>
+      </c>
       <c r="AD1" s="1" t="n"/>
-      <c r="AE1" s="1" t="n"/>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Solids centrifuge</t>
+        </is>
+      </c>
       <c r="AF1" s="1" t="n"/>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Crushing mill</t>
+          <t>Magnetic separator</t>
         </is>
       </c>
       <c r="AH1" s="1" t="n"/>
-      <c r="AI1" s="1" t="n"/>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Magnetic separator</t>
-        </is>
-      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Clarifier</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="n"/>
       <c r="AK1" s="1" t="n"/>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Solids centrifuge</t>
+          <t>Fermentation</t>
         </is>
       </c>
       <c r="AM1" s="1" t="n"/>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Chilled water package</t>
-        </is>
-      </c>
+      <c r="AN1" s="1" t="n"/>
       <c r="AO1" s="1" t="n"/>
       <c r="AP1" s="1" t="n"/>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Process water center</t>
-        </is>
-      </c>
+      <c r="AQ1" s="1" t="n"/>
       <c r="AR1" s="1" t="n"/>
-      <c r="AS1" s="1" t="n"/>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Molecular sieve</t>
+        </is>
+      </c>
       <c r="AT1" s="1" t="n"/>
       <c r="AU1" s="1" t="n"/>
-      <c r="AV1" s="1" t="n"/>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Cooling tower</t>
+        </is>
+      </c>
       <c r="AW1" s="1" t="n"/>
       <c r="AX1" s="1" t="n"/>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Molecular sieve</t>
-        </is>
-      </c>
+      <c r="AY1" s="1" t="n"/>
       <c r="AZ1" s="1" t="n"/>
       <c r="BA1" s="1" t="n"/>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>Vent scrubber</t>
+          <t>Conveying belt</t>
         </is>
       </c>
       <c r="BC1" s="1" t="n"/>
@@ -523,34 +523,34 @@
       <c r="BF1" s="1" t="n"/>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>Clarifier</t>
+          <t>Chilled water package</t>
         </is>
       </c>
       <c r="BH1" s="1" t="n"/>
       <c r="BI1" s="1" t="n"/>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
+          <t>Stream-lime</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Stream-enzyme</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
           <t>Stream-sugar cane</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Stream-makeup water</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Stream-denaturant</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>Stream-makeup water</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>Stream-lime</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>Stream-enzyme</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
@@ -639,277 +639,277 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
+          <t>Tank base cost [USD]</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>Tank exponent</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Process water pump base cost [USD]</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>Process water pump exponent</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>Process water pump electricity rate [kW / kg/hr]</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>Makeup water pump base cost [USD]</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>Makeup water pump exponent</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>Makeup water pump electricity rate [kW / kg/hr]</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
           <t>Boiler base cost [USD]</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>Boiler exponent</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="Q2" s="1" t="inlineStr">
         <is>
           <t>Boiler electricity rate [kW / kg/hr]</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="R2" s="1" t="inlineStr">
         <is>
           <t>Deaerator base cost [USD]</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="S2" s="1" t="inlineStr">
         <is>
           <t>Deaerator exponent</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="T2" s="1" t="inlineStr">
         <is>
           <t>Amine addition pkg base cost [USD]</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="U2" s="1" t="inlineStr">
         <is>
           <t>Amine addition pkg exponent</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="V2" s="1" t="inlineStr">
         <is>
           <t>Hot process water softener system base cost [USD]</t>
         </is>
       </c>
-      <c r="O2" s="1" t="inlineStr">
+      <c r="W2" s="1" t="inlineStr">
         <is>
           <t>Hot process water softener system exponent</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
+      <c r="X2" s="1" t="inlineStr">
         <is>
           <t>Turbogenerator base cost [USD]</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="Y2" s="1" t="inlineStr">
         <is>
           <t>Turbogenerator exponent</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="Z2" s="1" t="inlineStr">
         <is>
           <t>Base cost [USD]</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="AA2" s="1" t="inlineStr">
         <is>
           <t>Exponent</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
+      <c r="AB2" s="1" t="inlineStr">
+        <is>
+          <t>Electricity rate [kW / kg/hr]</t>
+        </is>
+      </c>
+      <c r="AC2" s="1" t="inlineStr">
+        <is>
+          <t>Base cost [USD]</t>
+        </is>
+      </c>
+      <c r="AD2" s="1" t="inlineStr">
+        <is>
+          <t>Exponent</t>
+        </is>
+      </c>
+      <c r="AE2" s="1" t="inlineStr">
+        <is>
+          <t>Base cost [USD]</t>
+        </is>
+      </c>
+      <c r="AF2" s="1" t="inlineStr">
+        <is>
+          <t>Exponent</t>
+        </is>
+      </c>
+      <c r="AG2" s="1" t="inlineStr">
+        <is>
+          <t>Base cost [USD]</t>
+        </is>
+      </c>
+      <c r="AH2" s="1" t="inlineStr">
+        <is>
+          <t>Exponent</t>
+        </is>
+      </c>
+      <c r="AI2" s="1" t="inlineStr">
+        <is>
+          <t>Base cost [USD]</t>
+        </is>
+      </c>
+      <c r="AJ2" s="1" t="inlineStr">
+        <is>
+          <t>Exponent</t>
+        </is>
+      </c>
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>Electricity rate [kW / ft^2]</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>Reactors base cost [USD]</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
+        <is>
+          <t>Reactors exponent</t>
+        </is>
+      </c>
+      <c r="AN2" s="1" t="inlineStr">
+        <is>
+          <t>Agitators base cost [USD]</t>
+        </is>
+      </c>
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>Agitators exponent</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
+        <is>
+          <t>Agitators electricity rate [kW / m3]</t>
+        </is>
+      </c>
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>Cleaning in place base cost [USD]</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>Cleaning in place exponent</t>
+        </is>
+      </c>
+      <c r="AS2" s="1" t="inlineStr">
+        <is>
+          <t>Column base cost [USD]</t>
+        </is>
+      </c>
+      <c r="AT2" s="1" t="inlineStr">
+        <is>
+          <t>Column exponent</t>
+        </is>
+      </c>
+      <c r="AU2" s="1" t="inlineStr">
+        <is>
+          <t>Column electricity rate [kW / kg/hr]</t>
+        </is>
+      </c>
+      <c r="AV2" s="1" t="inlineStr">
+        <is>
+          <t>Base cost [USD]</t>
+        </is>
+      </c>
+      <c r="AW2" s="1" t="inlineStr">
+        <is>
+          <t>Exponent</t>
+        </is>
+      </c>
+      <c r="AX2" s="1" t="inlineStr">
         <is>
           <t>Electricity rate [kW / kmol/hr]</t>
         </is>
       </c>
-      <c r="U2" s="1" t="inlineStr">
+      <c r="AY2" s="1" t="inlineStr">
         <is>
           <t>Cooling water pump base cost [USD]</t>
         </is>
       </c>
-      <c r="V2" s="1" t="inlineStr">
+      <c r="AZ2" s="1" t="inlineStr">
         <is>
           <t>Cooling water pump exponent</t>
         </is>
       </c>
-      <c r="W2" s="1" t="inlineStr">
+      <c r="BA2" s="1" t="inlineStr">
         <is>
           <t>Cooling water pump electricity rate [kW / kmol/hr]</t>
         </is>
       </c>
-      <c r="X2" s="1" t="inlineStr">
+      <c r="BB2" s="1" t="inlineStr">
         <is>
           <t>Base cost [USD]</t>
         </is>
       </c>
-      <c r="Y2" s="1" t="inlineStr">
+      <c r="BC2" s="1" t="inlineStr">
         <is>
           <t>Exponent</t>
         </is>
       </c>
-      <c r="Z2" s="1" t="inlineStr">
-        <is>
-          <t>Reactors base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AA2" s="1" t="inlineStr">
-        <is>
-          <t>Reactors exponent</t>
-        </is>
-      </c>
-      <c r="AB2" s="1" t="inlineStr">
-        <is>
-          <t>Agitators base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>Agitators exponent</t>
-        </is>
-      </c>
-      <c r="AD2" s="1" t="inlineStr">
-        <is>
-          <t>Agitators electricity rate [kW / m3]</t>
-        </is>
-      </c>
-      <c r="AE2" s="1" t="inlineStr">
-        <is>
-          <t>Cleaning in place base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AF2" s="1" t="inlineStr">
-        <is>
-          <t>Cleaning in place exponent</t>
-        </is>
-      </c>
-      <c r="AG2" s="1" t="inlineStr">
+      <c r="BD2" s="1" t="inlineStr">
         <is>
           <t>Base cost [USD]</t>
         </is>
       </c>
-      <c r="AH2" s="1" t="inlineStr">
+      <c r="BE2" s="1" t="inlineStr">
         <is>
           <t>Exponent</t>
         </is>
       </c>
-      <c r="AI2" s="1" t="inlineStr">
+      <c r="BF2" s="1" t="inlineStr">
         <is>
           <t>Electricity rate [kW / kg/hr]</t>
         </is>
       </c>
-      <c r="AJ2" s="1" t="inlineStr">
+      <c r="BG2" s="1" t="inlineStr">
         <is>
           <t>Base cost [USD]</t>
         </is>
       </c>
-      <c r="AK2" s="1" t="inlineStr">
+      <c r="BH2" s="1" t="inlineStr">
         <is>
           <t>Exponent</t>
         </is>
       </c>
-      <c r="AL2" s="1" t="inlineStr">
-        <is>
-          <t>Base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AM2" s="1" t="inlineStr">
-        <is>
-          <t>Exponent</t>
-        </is>
-      </c>
-      <c r="AN2" s="1" t="inlineStr">
-        <is>
-          <t>Base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AO2" s="1" t="inlineStr">
-        <is>
-          <t>Exponent</t>
-        </is>
-      </c>
-      <c r="AP2" s="1" t="inlineStr">
+      <c r="BI2" s="1" t="inlineStr">
         <is>
           <t>Electricity rate [kW / kJ/hr]</t>
-        </is>
-      </c>
-      <c r="AQ2" s="1" t="inlineStr">
-        <is>
-          <t>Tank base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AR2" s="1" t="inlineStr">
-        <is>
-          <t>Tank exponent</t>
-        </is>
-      </c>
-      <c r="AS2" s="1" t="inlineStr">
-        <is>
-          <t>Process water pump base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AT2" s="1" t="inlineStr">
-        <is>
-          <t>Process water pump exponent</t>
-        </is>
-      </c>
-      <c r="AU2" s="1" t="inlineStr">
-        <is>
-          <t>Process water pump electricity rate [kW / kg/hr]</t>
-        </is>
-      </c>
-      <c r="AV2" s="1" t="inlineStr">
-        <is>
-          <t>Makeup water pump base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AW2" s="1" t="inlineStr">
-        <is>
-          <t>Makeup water pump exponent</t>
-        </is>
-      </c>
-      <c r="AX2" s="1" t="inlineStr">
-        <is>
-          <t>Makeup water pump electricity rate [kW / kg/hr]</t>
-        </is>
-      </c>
-      <c r="AY2" s="1" t="inlineStr">
-        <is>
-          <t>Column base cost [USD]</t>
-        </is>
-      </c>
-      <c r="AZ2" s="1" t="inlineStr">
-        <is>
-          <t>Column exponent</t>
-        </is>
-      </c>
-      <c r="BA2" s="1" t="inlineStr">
-        <is>
-          <t>Column electricity rate [kW / kg/hr]</t>
-        </is>
-      </c>
-      <c r="BB2" s="1" t="inlineStr">
-        <is>
-          <t>Base cost [USD]</t>
-        </is>
-      </c>
-      <c r="BC2" s="1" t="inlineStr">
-        <is>
-          <t>Exponent</t>
-        </is>
-      </c>
-      <c r="BD2" s="1" t="inlineStr">
-        <is>
-          <t>Base cost [USD]</t>
-        </is>
-      </c>
-      <c r="BE2" s="1" t="inlineStr">
-        <is>
-          <t>Exponent</t>
-        </is>
-      </c>
-      <c r="BF2" s="1" t="inlineStr">
-        <is>
-          <t>Electricity rate [kW / kg/hr]</t>
-        </is>
-      </c>
-      <c r="BG2" s="1" t="inlineStr">
-        <is>
-          <t>Base cost [USD]</t>
-        </is>
-      </c>
-      <c r="BH2" s="1" t="inlineStr">
-        <is>
-          <t>Exponent</t>
-        </is>
-      </c>
-      <c r="BI2" s="1" t="inlineStr">
-        <is>
-          <t>Electricity rate [kW / ft^2]</t>
         </is>
       </c>
       <c r="BJ2" s="1" t="inlineStr">
@@ -1032,157 +1032,157 @@
         <v>0.9</v>
       </c>
       <c r="E4" t="n">
+        <v>215000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>250000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15292</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0001077758978193339</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6864</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9.587050988660616e-05</v>
+      </c>
+      <c r="O4" t="n">
+        <v>28550000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.004189604752687631</v>
+      </c>
+      <c r="R4" t="n">
+        <v>305000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T4" t="n">
+        <v>40000</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V4" t="n">
+        <v>78000</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AC4" t="n">
         <v>1010</v>
       </c>
-      <c r="F4" t="n">
+      <c r="AD4" t="n">
         <v>0.91</v>
       </c>
-      <c r="G4" t="n">
-        <v>28550000</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.004189604752687631</v>
-      </c>
-      <c r="J4" t="n">
-        <v>305000</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L4" t="n">
-        <v>40000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N4" t="n">
-        <v>78000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9500000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1375000</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.002867998485237346</v>
-      </c>
-      <c r="U4" t="n">
-        <v>283671</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.001832432073483936</v>
-      </c>
-      <c r="X4" t="n">
-        <v>813</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>844000</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AE4" t="n">
+        <v>68040</v>
+      </c>
+      <c r="AF4" t="n">
         <v>0.5</v>
       </c>
-      <c r="AB4" t="n">
-        <v>52500</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.005910435931307793</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>421000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.6</v>
-      </c>
       <c r="AG4" t="n">
-        <v>1500000</v>
+        <v>533471</v>
       </c>
       <c r="AH4" t="n">
         <v>0.6</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.006</v>
+        <v>2720</v>
       </c>
       <c r="AJ4" t="n">
-        <v>533471</v>
+        <v>0.58</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.6</v>
+        <v>0.0005</v>
       </c>
       <c r="AL4" t="n">
-        <v>68040</v>
+        <v>844000</v>
       </c>
       <c r="AM4" t="n">
         <v>0.5</v>
       </c>
       <c r="AN4" t="n">
+        <v>52500</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.005910435931307793</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>421000</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>2601000</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.006655794067086878</v>
+      </c>
+      <c r="AV4" t="n">
         <v>1375000</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AW4" t="n">
         <v>0.7</v>
       </c>
-      <c r="AP4" t="n">
-        <v>-4.328359737776564e-05</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>250000</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>15292</v>
-      </c>
-      <c r="AT4" t="n">
+      <c r="AX4" t="n">
+        <v>0.002867998485237346</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>283671</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>0.8</v>
       </c>
-      <c r="AU4" t="n">
-        <v>0.0001077758978193339</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>6864</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>9.587050988660616e-05</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>2601000</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0.6</v>
-      </c>
       <c r="BA4" t="n">
-        <v>0.006655794067086878</v>
+        <v>0.001832432073483936</v>
       </c>
       <c r="BB4" t="n">
-        <v>215000</v>
+        <v>813</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.6</v>
+        <v>0.38</v>
       </c>
       <c r="BD4" t="n">
         <v>2500000</v>
@@ -1194,28 +1194,28 @@
         <v>0.006</v>
       </c>
       <c r="BG4" t="n">
-        <v>2720</v>
+        <v>1375000</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.58</v>
+        <v>0.7</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.0005</v>
+        <v>-4.328359737776564e-05</v>
       </c>
       <c r="BJ4" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BL4" t="n">
         <v>0.03455</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BM4" t="n">
+        <v>0.000254</v>
+      </c>
+      <c r="BN4" t="n">
         <v>0.756</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0.000254</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>0.5</v>
       </c>
       <c r="BO4" t="n">
         <v>0.789</v>
@@ -1245,40 +1245,40 @@
         <v>0.85</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.1121778791084427</v>
+        <v>0.0920047084968391</v>
       </c>
       <c r="BY4" t="n">
-        <v>67648460.22680484</v>
+        <v>73761053.42143673</v>
       </c>
       <c r="BZ4" t="n">
-        <v>181630652.762521</v>
+        <v>165201284.9047461</v>
       </c>
       <c r="CA4" t="n">
         <v>112354864.2515192</v>
       </c>
       <c r="CB4" t="n">
-        <v>555240.5415094793</v>
+        <v>699570.2732596605</v>
       </c>
       <c r="CC4" t="n">
-        <v>37260.14469547391</v>
+        <v>37695.78970745688</v>
       </c>
       <c r="CD4" t="n">
-        <v>189963.0594043395</v>
+        <v>78032.99450370466</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:Q1"/>
-    <mergeCell ref="R1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AQ1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="AL1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BF1"/>
     <mergeCell ref="BG1:BI1"/>
